--- a/Notes/bank.xlsx
+++ b/Notes/bank.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{04B0022B-420A-4E0F-BFCE-847540D0DA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D4132FE-57B4-45ED-916C-528FC384ECAD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -232,8 +231,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,27 +385,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,24 +419,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -631,31 +594,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:K27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -668,7 +631,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -709,7 +672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -750,7 +713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -765,7 +728,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -782,7 +745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1</v>
       </c>
@@ -799,7 +762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="2" customFormat="1">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -816,10 +779,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="2" customFormat="1">
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="2" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>57</v>
       </c>
@@ -834,7 +797,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="2" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -847,7 +810,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="2" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
@@ -868,7 +831,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1</v>
       </c>
@@ -882,7 +845,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -897,7 +860,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -914,7 +877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>1</v>
       </c>
@@ -931,7 +894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>2</v>
       </c>
@@ -948,7 +911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>3</v>
       </c>
@@ -965,7 +928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>4</v>
       </c>
@@ -982,7 +945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="6" t="s">
         <v>51</v>
       </c>
@@ -997,7 +960,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1010,7 +973,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1027,7 +990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1044,7 +1007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1061,7 +1024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="6" t="s">
         <v>69</v>
       </c>
@@ -1076,7 +1039,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1087,7 +1050,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1098,7 +1061,7 @@
         <v>1907832</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1109,7 +1072,7 @@
         <v>1890236</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1126,7 +1089,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1104,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1161,7 +1124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1181,7 +1144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1189,7 +1152,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
@@ -1204,7 +1167,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1217,7 +1180,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1257,7 +1220,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1265,7 +1228,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="6" t="s">
         <v>61</v>
       </c>
@@ -1280,14 +1243,14 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1298,7 +1261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1322,9 +1285,9 @@
     <mergeCell ref="A32:K32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{0EDD5B65-BB3F-472B-BB47-DE70DF56E8AA}"/>
-    <hyperlink ref="C13" r:id="rId3" display="G@" xr:uid="{D3EB3C45-CDAF-4289-88CE-3D1749B12E82}"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3" display="G@"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -1332,24 +1295,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
